--- a/Data/Uncertainty.xlsx
+++ b/Data/Uncertainty.xlsx
@@ -1,19 +1,19 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28526"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ivang\Dropbox\BOOK_FE\BookData\DataLibrary\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ivang\Documents\GitHub\EoFE_DCG_Springer\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BB1E370C-F355-4AA7-B6F3-5D75CDD58016}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C24DEFD7-8E2A-48C8-B362-BE4CCA87F6BB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView minimized="1" xWindow="6684" yWindow="5892" windowWidth="17280" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="FRED Graph" sheetId="1" r:id="rId1"/>
+    <sheet name="Uncertainty" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -89,12 +89,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="4" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1"/>
   </cellXfs>
@@ -116,9 +115,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema di Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - Tema 2022">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -156,7 +155,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -262,7 +261,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -404,7 +403,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -453,7 +452,7 @@
       <c r="D2" s="4">
         <v>64.457809448242188</v>
       </c>
-      <c r="E2" s="6">
+      <c r="E2" s="5">
         <v>1.742132306098938</v>
       </c>
     </row>
@@ -470,7 +469,7 @@
       <c r="D3" s="4">
         <v>63.541721343994141</v>
       </c>
-      <c r="E3" s="5">
+      <c r="E3" s="4">
         <v>1.8285422325134277</v>
       </c>
     </row>
@@ -487,7 +486,7 @@
       <c r="D4" s="4">
         <v>50.101985931396484</v>
       </c>
-      <c r="E4" s="5">
+      <c r="E4" s="4">
         <v>1.3285210132598877</v>
       </c>
     </row>
@@ -504,7 +503,7 @@
       <c r="D5" s="4">
         <v>48.6827392578125</v>
       </c>
-      <c r="E5" s="5">
+      <c r="E5" s="4">
         <v>1.3808019161224365</v>
       </c>
     </row>
@@ -521,7 +520,7 @@
       <c r="D6" s="4">
         <v>79.482879638671875</v>
       </c>
-      <c r="E6" s="5">
+      <c r="E6" s="4">
         <v>2.0264816284179688</v>
       </c>
     </row>
@@ -538,7 +537,7 @@
       <c r="D7" s="4">
         <v>64.717819213867188</v>
       </c>
-      <c r="E7" s="5">
+      <c r="E7" s="4">
         <v>1.7051070928573608</v>
       </c>
     </row>
@@ -555,7 +554,7 @@
       <c r="D8" s="4">
         <v>51.904022216796875</v>
       </c>
-      <c r="E8" s="5">
+      <c r="E8" s="4">
         <v>1.2905306816101074</v>
       </c>
     </row>
@@ -572,7 +571,7 @@
       <c r="D9" s="4">
         <v>46.492256164550781</v>
       </c>
-      <c r="E9" s="5">
+      <c r="E9" s="4">
         <v>1.1213047504425049</v>
       </c>
     </row>
@@ -589,7 +588,7 @@
       <c r="D10" s="4">
         <v>52.689998626708984</v>
       </c>
-      <c r="E10" s="5">
+      <c r="E10" s="4">
         <v>1.5054088830947876</v>
       </c>
     </row>
@@ -606,7 +605,7 @@
       <c r="D11" s="4">
         <v>76.456527709960938</v>
       </c>
-      <c r="E11" s="5">
+      <c r="E11" s="4">
         <v>2.0277481079101563</v>
       </c>
     </row>
@@ -623,7 +622,7 @@
       <c r="D12" s="4">
         <v>45.060562133789063</v>
       </c>
-      <c r="E12" s="5">
+      <c r="E12" s="4">
         <v>1.2499064207077026</v>
       </c>
     </row>
@@ -640,7 +639,7 @@
       <c r="D13" s="4">
         <v>45.395099639892578</v>
       </c>
-      <c r="E13" s="5">
+      <c r="E13" s="4">
         <v>1.3469324111938477</v>
       </c>
     </row>
@@ -657,7 +656,7 @@
       <c r="D14" s="4">
         <v>46.899555206298828</v>
       </c>
-      <c r="E14" s="5">
+      <c r="E14" s="4">
         <v>1.3281478881835938</v>
       </c>
     </row>
@@ -674,7 +673,7 @@
       <c r="D15" s="4">
         <v>55.087711334228516</v>
       </c>
-      <c r="E15" s="5">
+      <c r="E15" s="4">
         <v>1.1672838926315308</v>
       </c>
     </row>
@@ -691,7 +690,7 @@
       <c r="D16" s="4">
         <v>61.708953857421875</v>
       </c>
-      <c r="E16" s="5">
+      <c r="E16" s="4">
         <v>1.4128162860870361</v>
       </c>
     </row>
@@ -708,7 +707,7 @@
       <c r="D17" s="4">
         <v>50.568737030029297</v>
       </c>
-      <c r="E17" s="5">
+      <c r="E17" s="4">
         <v>1.3275349140167236</v>
       </c>
     </row>
@@ -725,7 +724,7 @@
       <c r="D18" s="4">
         <v>60.376861572265625</v>
       </c>
-      <c r="E18" s="5">
+      <c r="E18" s="4">
         <v>1.5958626270294189</v>
       </c>
     </row>
@@ -742,7 +741,7 @@
       <c r="D19" s="4">
         <v>72.064338684082031</v>
       </c>
-      <c r="E19" s="5">
+      <c r="E19" s="4">
         <v>1.79020094871521</v>
       </c>
     </row>
@@ -759,7 +758,7 @@
       <c r="D20" s="4">
         <v>61.072940826416016</v>
       </c>
-      <c r="E20" s="5">
+      <c r="E20" s="4">
         <v>1.7694243192672729</v>
       </c>
     </row>
@@ -776,7 +775,7 @@
       <c r="D21" s="4">
         <v>64.107734680175781</v>
       </c>
-      <c r="E21" s="5">
+      <c r="E21" s="4">
         <v>1.6299729347229004</v>
       </c>
     </row>
@@ -793,7 +792,7 @@
       <c r="D22" s="4">
         <v>498.64788818359375</v>
       </c>
-      <c r="E22" s="5">
+      <c r="E22" s="4">
         <v>10.257369041442871</v>
       </c>
     </row>
@@ -810,7 +809,7 @@
       <c r="D23" s="4">
         <v>512.52972412109375</v>
       </c>
-      <c r="E23" s="5">
+      <c r="E23" s="4">
         <v>10.853581428527832</v>
       </c>
     </row>
@@ -827,7 +826,7 @@
       <c r="D24" s="4">
         <v>306.785888671875</v>
       </c>
-      <c r="E24" s="5">
+      <c r="E24" s="4">
         <v>7.6064910888671875</v>
       </c>
     </row>
@@ -844,7 +843,7 @@
       <c r="D25" s="4">
         <v>236.09974670410156</v>
       </c>
-      <c r="E25" s="5">
+      <c r="E25" s="4">
         <v>6.3687996864318848</v>
       </c>
     </row>
@@ -861,7 +860,7 @@
       <c r="D26" s="4">
         <v>172.47720336914063</v>
       </c>
-      <c r="E26" s="5">
+      <c r="E26" s="4">
         <v>4.6285929679870605</v>
       </c>
     </row>
@@ -878,7 +877,7 @@
       <c r="D27" s="4">
         <v>146.18571472167969</v>
       </c>
-      <c r="E27" s="5">
+      <c r="E27" s="4">
         <v>3.7028374671936035</v>
       </c>
     </row>
@@ -895,7 +894,7 @@
       <c r="D28" s="4">
         <v>151.97636413574219</v>
       </c>
-      <c r="E28" s="5">
+      <c r="E28" s="4">
         <v>3.9677488803863525</v>
       </c>
     </row>
@@ -912,7 +911,7 @@
       <c r="D29" s="4">
         <v>157.49655151367188</v>
       </c>
-      <c r="E29" s="5">
+      <c r="E29" s="4">
         <v>4.0169949531555176</v>
       </c>
     </row>
@@ -929,7 +928,7 @@
       <c r="D30" s="4">
         <v>163.32231140136719</v>
       </c>
-      <c r="E30" s="5">
+      <c r="E30" s="4">
         <v>4.133814811706543</v>
       </c>
     </row>
@@ -946,7 +945,7 @@
       <c r="D31" s="4">
         <v>149.33042907714844</v>
       </c>
-      <c r="E31" s="5">
+      <c r="E31" s="4">
         <v>3.7717082500457764</v>
       </c>
     </row>
@@ -963,7 +962,7 @@
       <c r="D32" s="4">
         <v>122.77834320068359</v>
       </c>
-      <c r="E32" s="5">
+      <c r="E32" s="4">
         <v>3.1247463226318359</v>
       </c>
     </row>
@@ -980,7 +979,7 @@
       <c r="D33" s="4">
         <v>127.06451416015625</v>
       </c>
-      <c r="E33" s="5">
+      <c r="E33" s="4">
         <v>3.0373830795288086</v>
       </c>
     </row>
@@ -997,7 +996,7 @@
       <c r="D34" s="4">
         <v>174.90333557128906</v>
       </c>
-      <c r="E34" s="5">
+      <c r="E34" s="4">
         <v>3.8706774711608887</v>
       </c>
     </row>
@@ -1014,7 +1013,7 @@
       <c r="D35" s="4">
         <v>172.03192138671875</v>
       </c>
-      <c r="E35" s="5">
+      <c r="E35" s="4">
         <v>4.1880459785461426</v>
       </c>
     </row>
@@ -1031,7 +1030,7 @@
       <c r="D36" s="4">
         <v>159.12759399414063</v>
       </c>
-      <c r="E36" s="5">
+      <c r="E36" s="4">
         <v>3.9944195747375488</v>
       </c>
     </row>
@@ -1048,7 +1047,7 @@
       <c r="D37" s="4">
         <v>175.81172180175781</v>
       </c>
-      <c r="E37" s="5">
+      <c r="E37" s="4">
         <v>4.0902681350708008</v>
       </c>
     </row>
@@ -1065,7 +1064,7 @@
       <c r="D38" s="4">
         <v>206.43460083007813</v>
       </c>
-      <c r="E38" s="5">
+      <c r="E38" s="4">
         <v>4.8001723289489746</v>
       </c>
     </row>
@@ -1082,7 +1081,7 @@
       <c r="D39" s="4">
         <v>239.61093139648438</v>
       </c>
-      <c r="E39" s="5">
+      <c r="E39" s="4">
         <v>4.9209275245666504</v>
       </c>
     </row>
@@ -1099,7 +1098,7 @@
       <c r="D40" s="4">
         <v>358.711181640625</v>
       </c>
-      <c r="E40" s="5">
+      <c r="E40" s="4">
         <v>8.5146827697753906</v>
       </c>
     </row>
@@ -1116,7 +1115,7 @@
       <c r="D41" s="4">
         <v>255.77517700195313</v>
       </c>
-      <c r="E41" s="5">
+      <c r="E41" s="4">
         <v>7.3614907264709473</v>
       </c>
     </row>
@@ -1133,7 +1132,7 @@
       <c r="D42" s="4">
         <v>162.12187194824219</v>
       </c>
-      <c r="E42" s="5">
+      <c r="E42" s="4">
         <v>4.548680305480957</v>
       </c>
     </row>
@@ -1150,7 +1149,7 @@
       <c r="D43" s="4">
         <v>145.76972961425781</v>
       </c>
-      <c r="E43" s="5">
+      <c r="E43" s="4">
         <v>4.3218421936035156</v>
       </c>
     </row>
@@ -1167,7 +1166,7 @@
       <c r="D44" s="4">
         <v>134.89891052246094</v>
       </c>
-      <c r="E44" s="5">
+      <c r="E44" s="4">
         <v>4.0390186309814453</v>
       </c>
     </row>
@@ -1184,7 +1183,7 @@
       <c r="D45" s="4">
         <v>138.23092651367188</v>
       </c>
-      <c r="E45" s="5">
+      <c r="E45" s="4">
         <v>3.8317275047302246</v>
       </c>
     </row>
@@ -1201,7 +1200,7 @@
       <c r="D46" s="4">
         <v>118.19628143310547</v>
       </c>
-      <c r="E46" s="5">
+      <c r="E46" s="4">
         <v>3.5307261943817139</v>
       </c>
     </row>
@@ -1218,7 +1217,7 @@
       <c r="D47" s="4">
         <v>108.3173828125</v>
       </c>
-      <c r="E47" s="5">
+      <c r="E47" s="4">
         <v>3.2452325820922852</v>
       </c>
     </row>
@@ -1235,7 +1234,7 @@
       <c r="D48" s="4">
         <v>118.08669281005859</v>
       </c>
-      <c r="E48" s="5">
+      <c r="E48" s="4">
         <v>3.2797615528106689</v>
       </c>
     </row>
@@ -1252,7 +1251,7 @@
       <c r="D49" s="4">
         <v>129.46507263183594</v>
       </c>
-      <c r="E49" s="5">
+      <c r="E49" s="4">
         <v>3.748779296875</v>
       </c>
     </row>
@@ -1269,7 +1268,7 @@
       <c r="D50" s="4">
         <v>113.46759033203125</v>
       </c>
-      <c r="E50" s="5">
+      <c r="E50" s="4">
         <v>3.3764896392822266</v>
       </c>
     </row>
@@ -1286,7 +1285,7 @@
       <c r="D51" s="4">
         <v>115.07597351074219</v>
       </c>
-      <c r="E51" s="5">
+      <c r="E51" s="4">
         <v>3.3338251113891602</v>
       </c>
     </row>
@@ -1303,7 +1302,7 @@
       <c r="D52" s="4">
         <v>138.53207397460938</v>
       </c>
-      <c r="E52" s="5">
+      <c r="E52" s="4">
         <v>3.6370236873626709</v>
       </c>
     </row>
@@ -1320,7 +1319,7 @@
       <c r="D53" s="4">
         <v>149.63139343261719</v>
       </c>
-      <c r="E53" s="5">
+      <c r="E53" s="4">
         <v>4.2148699760437012</v>
       </c>
     </row>
@@ -1337,7 +1336,7 @@
       <c r="D54" s="4">
         <v>121.0911865234375</v>
       </c>
-      <c r="E54" s="5">
+      <c r="E54" s="4">
         <v>3.5938968658447266</v>
       </c>
     </row>
@@ -1354,7 +1353,7 @@
       <c r="D55" s="4">
         <v>137.23391723632813</v>
       </c>
-      <c r="E55" s="5">
+      <c r="E55" s="4">
         <v>4.3036050796508789</v>
       </c>
     </row>
@@ -1371,7 +1370,7 @@
       <c r="D56" s="4">
         <v>131.01985168457031</v>
       </c>
-      <c r="E56" s="5">
+      <c r="E56" s="4">
         <v>4.1271276473999023</v>
       </c>
     </row>
@@ -1388,7 +1387,7 @@
       <c r="D57" s="4">
         <v>140.36582946777344</v>
       </c>
-      <c r="E57" s="5">
+      <c r="E57" s="4">
         <v>4.1024904251098633</v>
       </c>
     </row>
@@ -1405,7 +1404,7 @@
       <c r="D58" s="4">
         <v>153.87161254882813</v>
       </c>
-      <c r="E58" s="5">
+      <c r="E58" s="4">
         <v>4.439915657043457</v>
       </c>
     </row>
@@ -1422,7 +1421,7 @@
       <c r="D59" s="4">
         <v>119.86279296875</v>
       </c>
-      <c r="E59" s="5">
+      <c r="E59" s="4">
         <v>3.5458574295043945</v>
       </c>
     </row>
@@ -1439,7 +1438,7 @@
       <c r="D60" s="4">
         <v>122.70738983154297</v>
       </c>
-      <c r="E60" s="5">
+      <c r="E60" s="4">
         <v>3.7186005115509033</v>
       </c>
     </row>
@@ -1456,7 +1455,7 @@
       <c r="D61" s="4">
         <v>109.89522552490234</v>
       </c>
-      <c r="E61" s="5">
+      <c r="E61" s="4">
         <v>2.9134273529052734</v>
       </c>
     </row>
@@ -1473,7 +1472,7 @@
       <c r="D62" s="4">
         <v>100.88758850097656</v>
       </c>
-      <c r="E62" s="5">
+      <c r="E62" s="4">
         <v>2.7471721172332764</v>
       </c>
     </row>
@@ -1490,7 +1489,7 @@
       <c r="D63" s="4">
         <v>108.97796630859375</v>
       </c>
-      <c r="E63" s="5">
+      <c r="E63" s="4">
         <v>3.0995616912841797</v>
       </c>
     </row>
@@ -1507,7 +1506,7 @@
       <c r="D64" s="4">
         <v>90.410484313964844</v>
       </c>
-      <c r="E64" s="5">
+      <c r="E64" s="4">
         <v>2.5233054161071777</v>
       </c>
     </row>
@@ -1524,7 +1523,7 @@
       <c r="D65" s="4">
         <v>87.032402038574219</v>
       </c>
-      <c r="E65" s="5">
+      <c r="E65" s="4">
         <v>2.6092097759246826</v>
       </c>
     </row>
@@ -1541,7 +1540,7 @@
       <c r="D66" s="4">
         <v>98.205963134765625</v>
       </c>
-      <c r="E66" s="5">
+      <c r="E66" s="4">
         <v>2.8278746604919434</v>
       </c>
     </row>
@@ -1558,7 +1557,7 @@
       <c r="D67" s="4">
         <v>81.124053955078125</v>
       </c>
-      <c r="E67" s="5">
+      <c r="E67" s="4">
         <v>2.42549729347229</v>
       </c>
     </row>
@@ -1575,7 +1574,7 @@
       <c r="D68" s="4">
         <v>165.90191650390625</v>
       </c>
-      <c r="E68" s="5">
+      <c r="E68" s="4">
         <v>4.1007356643676758</v>
       </c>
     </row>
@@ -1592,7 +1591,7 @@
       <c r="D69" s="4">
         <v>116.2276611328125</v>
       </c>
-      <c r="E69" s="5">
+      <c r="E69" s="4">
         <v>3.0955166816711426</v>
       </c>
     </row>
@@ -1609,7 +1608,7 @@
       <c r="D70" s="4">
         <v>103.80766296386719</v>
       </c>
-      <c r="E70" s="5">
+      <c r="E70" s="4">
         <v>2.8355658054351807</v>
       </c>
     </row>
@@ -1626,7 +1625,7 @@
       <c r="D71" s="4">
         <v>87.06182861328125</v>
       </c>
-      <c r="E71" s="5">
+      <c r="E71" s="4">
         <v>2.6321315765380859</v>
       </c>
     </row>
@@ -1643,7 +1642,7 @@
       <c r="D72" s="4">
         <v>83.480094909667969</v>
       </c>
-      <c r="E72" s="5">
+      <c r="E72" s="4">
         <v>2.3183574676513672</v>
       </c>
     </row>
@@ -1660,7 +1659,7 @@
       <c r="D73" s="4">
         <v>95.350250244140625</v>
       </c>
-      <c r="E73" s="5">
+      <c r="E73" s="4">
         <v>2.8607158660888672</v>
       </c>
     </row>
@@ -1677,7 +1676,7 @@
       <c r="D74" s="4">
         <v>94.510017395019531</v>
       </c>
-      <c r="E74" s="5">
+      <c r="E74" s="4">
         <v>2.7288532257080078</v>
       </c>
     </row>
@@ -1694,7 +1693,7 @@
       <c r="D75" s="4">
         <v>95.858192443847656</v>
       </c>
-      <c r="E75" s="5">
+      <c r="E75" s="4">
         <v>2.6547963619232178</v>
       </c>
     </row>
@@ -1711,7 +1710,7 @@
       <c r="D76" s="4">
         <v>92.797622680664063</v>
       </c>
-      <c r="E76" s="5">
+      <c r="E76" s="4">
         <v>2.7960407733917236</v>
       </c>
     </row>
@@ -1728,7 +1727,7 @@
       <c r="D77" s="4">
         <v>89.015800476074219</v>
       </c>
-      <c r="E77" s="5">
+      <c r="E77" s="4">
         <v>2.4344000816345215</v>
       </c>
     </row>
@@ -1745,7 +1744,7 @@
       <c r="D78" s="4">
         <v>85.208778381347656</v>
       </c>
-      <c r="E78" s="5">
+      <c r="E78" s="4">
         <v>2.6467905044555664</v>
       </c>
     </row>
@@ -1762,7 +1761,7 @@
       <c r="D79" s="4">
         <v>102.57276916503906</v>
       </c>
-      <c r="E79" s="5">
+      <c r="E79" s="4">
         <v>2.8010129928588867</v>
       </c>
     </row>
@@ -1779,7 +1778,7 @@
       <c r="D80" s="4">
         <v>137.13482666015625</v>
       </c>
-      <c r="E80" s="5">
+      <c r="E80" s="4">
         <v>3.5899069309234619</v>
       </c>
     </row>
@@ -1796,7 +1795,7 @@
       <c r="D81" s="4">
         <v>147.08111572265625</v>
       </c>
-      <c r="E81" s="5">
+      <c r="E81" s="4">
         <v>3.4805359840393066</v>
       </c>
     </row>
@@ -1813,7 +1812,7 @@
       <c r="D82" s="4">
         <v>111.72425842285156</v>
       </c>
-      <c r="E82" s="5">
+      <c r="E82" s="4">
         <v>3.430241584777832</v>
       </c>
     </row>
@@ -1830,7 +1829,7 @@
       <c r="D83" s="4">
         <v>113.13529968261719</v>
       </c>
-      <c r="E83" s="5">
+      <c r="E83" s="4">
         <v>3.1165411472320557</v>
       </c>
     </row>
@@ -1847,7 +1846,7 @@
       <c r="D84" s="4">
         <v>88.778923034667969</v>
       </c>
-      <c r="E84" s="5">
+      <c r="E84" s="4">
         <v>2.5148499011993408</v>
       </c>
     </row>
@@ -1864,7 +1863,7 @@
       <c r="D85" s="4">
         <v>90.606559753417969</v>
       </c>
-      <c r="E85" s="5">
+      <c r="E85" s="4">
         <v>2.669245719909668</v>
       </c>
     </row>
@@ -1881,7 +1880,7 @@
       <c r="D86" s="4">
         <v>97.9200439453125</v>
       </c>
-      <c r="E86" s="5">
+      <c r="E86" s="4">
         <v>3.153611421585083</v>
       </c>
     </row>
@@ -1898,7 +1897,7 @@
       <c r="D87" s="4">
         <v>96.169357299804688</v>
       </c>
-      <c r="E87" s="5">
+      <c r="E87" s="4">
         <v>3.0102851390838623</v>
       </c>
     </row>
@@ -1915,7 +1914,7 @@
       <c r="D88" s="4">
         <v>87.336502075195313</v>
       </c>
-      <c r="E88" s="5">
+      <c r="E88" s="4">
         <v>2.547290563583374</v>
       </c>
     </row>
@@ -1932,7 +1931,7 @@
       <c r="D89" s="4">
         <v>76.613380432128906</v>
       </c>
-      <c r="E89" s="5">
+      <c r="E89" s="4">
         <v>2.5067522525787354</v>
       </c>
     </row>
@@ -1949,7 +1948,7 @@
       <c r="D90" s="4">
         <v>92.599586486816406</v>
       </c>
-      <c r="E90" s="5">
+      <c r="E90" s="4">
         <v>2.9239766597747803</v>
       </c>
     </row>
@@ -1966,7 +1965,7 @@
       <c r="D91" s="4">
         <v>97.972312927246094</v>
       </c>
-      <c r="E91" s="5">
+      <c r="E91" s="4">
         <v>3.095238208770752</v>
       </c>
     </row>
@@ -1983,7 +1982,7 @@
       <c r="D92" s="4">
         <v>112.34625244140625</v>
       </c>
-      <c r="E92" s="5">
+      <c r="E92" s="4">
         <v>3.1639664173126221</v>
       </c>
     </row>
@@ -2000,7 +1999,7 @@
       <c r="D93" s="4">
         <v>83.173202514648438</v>
       </c>
-      <c r="E93" s="5">
+      <c r="E93" s="4">
         <v>2.4035017490386963</v>
       </c>
     </row>
@@ -2017,7 +2016,7 @@
       <c r="D94" s="4">
         <v>94.488868713378906</v>
       </c>
-      <c r="E94" s="5">
+      <c r="E94" s="4">
         <v>2.9795312881469727</v>
       </c>
     </row>
@@ -2034,7 +2033,7 @@
       <c r="D95" s="4">
         <v>101.47301483154297</v>
       </c>
-      <c r="E95" s="5">
+      <c r="E95" s="4">
         <v>3.2279047966003418</v>
       </c>
     </row>
@@ -2051,7 +2050,7 @@
       <c r="D96" s="4">
         <v>89.795448303222656</v>
       </c>
-      <c r="E96" s="5">
+      <c r="E96" s="4">
         <v>2.5455796718597412</v>
       </c>
     </row>
@@ -2068,7 +2067,7 @@
       <c r="D97" s="4">
         <v>94.967491149902344</v>
       </c>
-      <c r="E97" s="5">
+      <c r="E97" s="4">
         <v>2.7900912761688232</v>
       </c>
     </row>
@@ -2085,7 +2084,7 @@
       <c r="D98" s="4">
         <v>81.499824523925781</v>
       </c>
-      <c r="E98" s="5">
+      <c r="E98" s="4">
         <v>2.6892251968383789</v>
       </c>
     </row>
@@ -2102,7 +2101,7 @@
       <c r="D99" s="4">
         <v>80.75146484375</v>
       </c>
-      <c r="E99" s="5">
+      <c r="E99" s="4">
         <v>2.6985280513763428</v>
       </c>
     </row>
@@ -2119,7 +2118,7 @@
       <c r="D100" s="4">
         <v>77.636138916015625</v>
       </c>
-      <c r="E100" s="5">
+      <c r="E100" s="4">
         <v>2.3181934356689453</v>
       </c>
     </row>
@@ -2136,7 +2135,7 @@
       <c r="D101" s="4">
         <v>71.904808044433594</v>
       </c>
-      <c r="E101" s="5">
+      <c r="E101" s="4">
         <v>2.2929592132568359</v>
       </c>
     </row>
@@ -2153,7 +2152,7 @@
       <c r="D102" s="4">
         <v>72.573799133300781</v>
       </c>
-      <c r="E102" s="5">
+      <c r="E102" s="4">
         <v>2.1929042339324951</v>
       </c>
     </row>
@@ -2170,7 +2169,7 @@
       <c r="D103" s="4">
         <v>87.548423767089844</v>
       </c>
-      <c r="E103" s="5">
+      <c r="E103" s="4">
         <v>2.4590938091278076</v>
       </c>
     </row>
@@ -2187,7 +2186,7 @@
       <c r="D104" s="4">
         <v>89.739570617675781</v>
       </c>
-      <c r="E104" s="5">
+      <c r="E104" s="4">
         <v>2.778315544128418</v>
       </c>
     </row>
@@ -2204,7 +2203,7 @@
       <c r="D105" s="4">
         <v>88.554107666015625</v>
       </c>
-      <c r="E105" s="5">
+      <c r="E105" s="4">
         <v>2.5352871417999268</v>
       </c>
     </row>
@@ -2221,7 +2220,7 @@
       <c r="D106" s="4">
         <v>88.542556762695313</v>
       </c>
-      <c r="E106" s="5">
+      <c r="E106" s="4">
         <v>2.6551120281219482</v>
       </c>
     </row>
@@ -2238,7 +2237,7 @@
       <c r="D107" s="4">
         <v>64.159797668457031</v>
       </c>
-      <c r="E107" s="5">
+      <c r="E107" s="4">
         <v>1.8354430198669434</v>
       </c>
     </row>
@@ -2255,7 +2254,7 @@
       <c r="D108" s="4">
         <v>79.080970764160156</v>
       </c>
-      <c r="E108" s="5">
+      <c r="E108" s="4">
         <v>2.2779922485351563</v>
       </c>
     </row>
@@ -2272,7 +2271,7 @@
       <c r="D109" s="4">
         <v>92.366432189941406</v>
       </c>
-      <c r="E109" s="5">
+      <c r="E109" s="4">
         <v>2.5492827892303467</v>
       </c>
     </row>
@@ -2289,7 +2288,7 @@
       <c r="D110" s="4">
         <v>85.369476318359375</v>
       </c>
-      <c r="E110" s="5">
+      <c r="E110" s="4">
         <v>2.1422104835510254</v>
       </c>
     </row>
@@ -2306,7 +2305,7 @@
       <c r="D111" s="4">
         <v>67.452674865722656</v>
       </c>
-      <c r="E111" s="5">
+      <c r="E111" s="4">
         <v>2.1989867687225342</v>
       </c>
     </row>
@@ -2323,7 +2322,7 @@
       <c r="D112" s="4">
         <v>72.644622802734375</v>
       </c>
-      <c r="E112" s="5">
+      <c r="E112" s="4">
         <v>1.9976147413253784</v>
       </c>
     </row>
@@ -2340,7 +2339,7 @@
       <c r="D113" s="4">
         <v>85.688499450683594</v>
       </c>
-      <c r="E113" s="5">
+      <c r="E113" s="4">
         <v>2.4114224910736084</v>
       </c>
     </row>
@@ -2357,7 +2356,7 @@
       <c r="D114" s="4">
         <v>89.680862426757813</v>
       </c>
-      <c r="E114" s="5">
+      <c r="E114" s="4">
         <v>2.7107813358306885</v>
       </c>
     </row>
@@ -2374,7 +2373,7 @@
       <c r="D115" s="4">
         <v>81.109588623046875</v>
       </c>
-      <c r="E115" s="5">
+      <c r="E115" s="4">
         <v>2.5069949626922607</v>
       </c>
     </row>
@@ -2391,7 +2390,7 @@
       <c r="D116" s="4">
         <v>83.439620971679688</v>
       </c>
-      <c r="E116" s="5">
+      <c r="E116" s="4">
         <v>2.3943507671356201</v>
       </c>
     </row>
@@ -2408,7 +2407,7 @@
       <c r="D117" s="4">
         <v>73.371879577636719</v>
       </c>
-      <c r="E117" s="5">
+      <c r="E117" s="4">
         <v>2.1067886352539063</v>
       </c>
     </row>
@@ -2425,7 +2424,7 @@
       <c r="D118" s="4">
         <v>92.839988708496094</v>
       </c>
-      <c r="E118" s="5">
+      <c r="E118" s="4">
         <v>2.616403341293335</v>
       </c>
     </row>
@@ -2442,7 +2441,7 @@
       <c r="D119" s="4">
         <v>90.576400756835938</v>
       </c>
-      <c r="E119" s="5">
+      <c r="E119" s="4">
         <v>2.7803332805633545</v>
       </c>
     </row>
@@ -2459,7 +2458,7 @@
       <c r="D120" s="4">
         <v>82.101760864257813</v>
       </c>
-      <c r="E120" s="5">
+      <c r="E120" s="4">
         <v>2.3220813274383545</v>
       </c>
     </row>
@@ -2476,7 +2475,7 @@
       <c r="D121" s="4">
         <v>92.946914672851563</v>
       </c>
-      <c r="E121" s="5">
+      <c r="E121" s="4">
         <v>2.9681360721588135</v>
       </c>
     </row>
@@ -2493,7 +2492,7 @@
       <c r="D122" s="4">
         <v>91.581024169921875</v>
       </c>
-      <c r="E122" s="5">
+      <c r="E122" s="4">
         <v>2.8073992729187012</v>
       </c>
     </row>
@@ -2510,7 +2509,7 @@
       <c r="D123" s="4">
         <v>80.725357055664063</v>
       </c>
-      <c r="E123" s="5">
+      <c r="E123" s="4">
         <v>2.4728798866271973</v>
       </c>
     </row>
@@ -2527,7 +2526,7 @@
       <c r="D124" s="4">
         <v>74.116943359375</v>
       </c>
-      <c r="E124" s="5">
+      <c r="E124" s="4">
         <v>2.1069869995117188</v>
       </c>
     </row>
@@ -2544,7 +2543,7 @@
       <c r="D125" s="4">
         <v>88.761581420898438</v>
       </c>
-      <c r="E125" s="5">
+      <c r="E125" s="4">
         <v>2.5477707386016846</v>
       </c>
     </row>
@@ -2561,7 +2560,7 @@
       <c r="D126" s="4">
         <v>88.958709716796875</v>
       </c>
-      <c r="E126" s="5">
+      <c r="E126" s="4">
         <v>2.9392695426940918</v>
       </c>
     </row>
@@ -2578,7 +2577,7 @@
       <c r="D127" s="4">
         <v>96.453697204589844</v>
       </c>
-      <c r="E127" s="5">
+      <c r="E127" s="4">
         <v>3.2650740146636963</v>
       </c>
     </row>
@@ -2595,7 +2594,7 @@
       <c r="D128" s="4">
         <v>79.381378173828125</v>
       </c>
-      <c r="E128" s="5">
+      <c r="E128" s="4">
         <v>2.3174567222595215</v>
       </c>
     </row>
@@ -2612,7 +2611,7 @@
       <c r="D129" s="4">
         <v>80.993865966796875</v>
       </c>
-      <c r="E129" s="5">
+      <c r="E129" s="4">
         <v>2.5882632732391357</v>
       </c>
     </row>
@@ -2629,7 +2628,7 @@
       <c r="D130" s="4">
         <v>71.168548583984375</v>
       </c>
-      <c r="E130" s="5">
+      <c r="E130" s="4">
         <v>2.2176730632781982</v>
       </c>
     </row>
@@ -2646,7 +2645,7 @@
       <c r="D131" s="4">
         <v>65.991935729980469</v>
       </c>
-      <c r="E131" s="5">
+      <c r="E131" s="4">
         <v>2.0114333629608154</v>
       </c>
     </row>
@@ -2663,7 +2662,7 @@
       <c r="D132" s="4">
         <v>94.705169677734375</v>
       </c>
-      <c r="E132" s="5">
+      <c r="E132" s="4">
         <v>2.87445068359375</v>
       </c>
     </row>
@@ -2680,7 +2679,7 @@
       <c r="D133" s="4">
         <v>97.203895568847656</v>
       </c>
-      <c r="E133" s="5">
+      <c r="E133" s="4">
         <v>2.7915780544281006</v>
       </c>
     </row>
@@ -2697,7 +2696,7 @@
       <c r="D134" s="4">
         <v>79.421615600585938</v>
       </c>
-      <c r="E134" s="5">
+      <c r="E134" s="4">
         <v>2.297234058380127</v>
       </c>
     </row>
@@ -2714,7 +2713,7 @@
       <c r="D135" s="4">
         <v>90.014488220214844</v>
       </c>
-      <c r="E135" s="5">
+      <c r="E135" s="4">
         <v>2.4176104068756104</v>
       </c>
     </row>
@@ -2731,7 +2730,7 @@
       <c r="D136" s="4">
         <v>136.8883056640625</v>
       </c>
-      <c r="E136" s="5">
+      <c r="E136" s="4">
         <v>3.5147643089294434</v>
       </c>
     </row>
@@ -2748,7 +2747,7 @@
       <c r="D137" s="4">
         <v>91.017768859863281</v>
       </c>
-      <c r="E137" s="5">
+      <c r="E137" s="4">
         <v>2.6284909248352051</v>
       </c>
     </row>
@@ -2765,7 +2764,7 @@
       <c r="D138" s="4">
         <v>105.34491729736328</v>
       </c>
-      <c r="E138" s="5">
+      <c r="E138" s="4">
         <v>3.1697342395782471</v>
       </c>
     </row>
@@ -2782,7 +2781,7 @@
       <c r="D139" s="4">
         <v>84.391845703125</v>
       </c>
-      <c r="E139" s="5">
+      <c r="E139" s="4">
         <v>2.7434041500091553</v>
       </c>
     </row>
@@ -2799,7 +2798,7 @@
       <c r="D140" s="4">
         <v>78.924758911132813</v>
       </c>
-      <c r="E140" s="5">
+      <c r="E140" s="4">
         <v>2.3269479274749756</v>
       </c>
     </row>
@@ -2816,7 +2815,7 @@
       <c r="D141" s="4">
         <v>86.951568603515625</v>
       </c>
-      <c r="E141" s="5">
+      <c r="E141" s="4">
         <v>2.4704747200012207</v>
       </c>
     </row>
@@ -2833,7 +2832,7 @@
       <c r="D142" s="4">
         <v>83.350448608398438</v>
       </c>
-      <c r="E142" s="5">
+      <c r="E142" s="4">
         <v>2.43959641456604</v>
       </c>
     </row>
@@ -2850,7 +2849,7 @@
       <c r="D143" s="4">
         <v>76.339935302734375</v>
       </c>
-      <c r="E143" s="5">
+      <c r="E143" s="4">
         <v>2.2011473178863525</v>
       </c>
     </row>
@@ -2867,7 +2866,7 @@
       <c r="D144" s="4">
         <v>83.157676696777344</v>
       </c>
-      <c r="E144" s="5">
+      <c r="E144" s="4">
         <v>2.5220828056335449</v>
       </c>
     </row>
@@ -2884,7 +2883,7 @@
       <c r="D145" s="4">
         <v>85.341323852539063</v>
       </c>
-      <c r="E145" s="5">
+      <c r="E145" s="4">
         <v>2.5767018795013428</v>
       </c>
     </row>
@@ -2901,7 +2900,7 @@
       <c r="D146" s="4">
         <v>79.634971618652344</v>
       </c>
-      <c r="E146" s="5">
+      <c r="E146" s="4">
         <v>2.3933403491973877</v>
       </c>
     </row>
@@ -2918,7 +2917,7 @@
       <c r="D147" s="4">
         <v>92.445823669433594</v>
       </c>
-      <c r="E147" s="5">
+      <c r="E147" s="4">
         <v>2.6026391983032227</v>
       </c>
     </row>
@@ -2935,7 +2934,7 @@
       <c r="D148" s="4">
         <v>88.759979248046875</v>
       </c>
-      <c r="E148" s="5">
+      <c r="E148" s="4">
         <v>2.62685227394104</v>
       </c>
     </row>
@@ -2952,7 +2951,7 @@
       <c r="D149" s="4">
         <v>96.016685485839844</v>
       </c>
-      <c r="E149" s="5">
+      <c r="E149" s="4">
         <v>2.6785714626312256</v>
       </c>
     </row>
@@ -2969,7 +2968,7 @@
       <c r="D150" s="4">
         <v>78.171157836914063</v>
       </c>
-      <c r="E150" s="5">
+      <c r="E150" s="4">
         <v>2.4275276660919189</v>
       </c>
     </row>
@@ -2986,7 +2985,7 @@
       <c r="D151" s="4">
         <v>77.822433471679688</v>
       </c>
-      <c r="E151" s="5">
+      <c r="E151" s="4">
         <v>2.0594401359558105</v>
       </c>
     </row>
@@ -3003,7 +3002,7 @@
       <c r="D152" s="4">
         <v>82.808021545410156</v>
       </c>
-      <c r="E152" s="5">
+      <c r="E152" s="4">
         <v>2.361060619354248</v>
       </c>
     </row>
@@ -3020,7 +3019,7 @@
       <c r="D153" s="4">
         <v>74.87835693359375</v>
       </c>
-      <c r="E153" s="5">
+      <c r="E153" s="4">
         <v>2.3024413585662842</v>
       </c>
     </row>
@@ -3037,7 +3036,7 @@
       <c r="D154" s="4">
         <v>69.280509948730469</v>
       </c>
-      <c r="E154" s="5">
+      <c r="E154" s="4">
         <v>2.1039605140686035</v>
       </c>
     </row>
@@ -3054,7 +3053,7 @@
       <c r="D155" s="4">
         <v>81.663665771484375</v>
       </c>
-      <c r="E155" s="5">
+      <c r="E155" s="4">
         <v>2.3708815574645996</v>
       </c>
     </row>
@@ -3071,7 +3070,7 @@
       <c r="D156" s="4">
         <v>81.389640808105469</v>
       </c>
-      <c r="E156" s="5">
+      <c r="E156" s="4">
         <v>2.3182411193847656</v>
       </c>
     </row>
@@ -3088,7 +3087,7 @@
       <c r="D157" s="4">
         <v>74.831558227539063</v>
       </c>
-      <c r="E157" s="5">
+      <c r="E157" s="4">
         <v>2.275338888168335</v>
       </c>
     </row>
@@ -3105,7 +3104,7 @@
       <c r="D158" s="4">
         <v>90.657493591308594</v>
       </c>
-      <c r="E158" s="5">
+      <c r="E158" s="4">
         <v>2.4532845020294189</v>
       </c>
     </row>
@@ -3122,7 +3121,7 @@
       <c r="D159" s="4">
         <v>81.59033203125</v>
       </c>
-      <c r="E159" s="5">
+      <c r="E159" s="4">
         <v>2.5509581565856934</v>
       </c>
     </row>
@@ -3139,7 +3138,7 @@
       <c r="D160" s="4">
         <v>75.896720886230469</v>
       </c>
-      <c r="E160" s="5">
+      <c r="E160" s="4">
         <v>1.9329475164413452</v>
       </c>
     </row>
@@ -3156,7 +3155,7 @@
       <c r="D161" s="4">
         <v>95.107872009277344</v>
       </c>
-      <c r="E161" s="5">
+      <c r="E161" s="4">
         <v>2.7317976951599121</v>
       </c>
     </row>
@@ -3173,7 +3172,7 @@
       <c r="D162" s="4">
         <v>83.717315673828125</v>
       </c>
-      <c r="E162" s="5">
+      <c r="E162" s="4">
         <v>2.5370209217071533</v>
       </c>
     </row>
@@ -3190,7 +3189,7 @@
       <c r="D163" s="4">
         <v>82.973007202148438</v>
       </c>
-      <c r="E163" s="5">
+      <c r="E163" s="4">
         <v>2.5222551822662354</v>
       </c>
     </row>
@@ -3207,7 +3206,7 @@
       <c r="D164" s="4">
         <v>73.975814819335938</v>
       </c>
-      <c r="E164" s="5">
+      <c r="E164" s="4">
         <v>2.03076171875</v>
       </c>
     </row>
@@ -3224,7 +3223,7 @@
       <c r="D165" s="4">
         <v>90.956748962402344</v>
       </c>
-      <c r="E165" s="5">
+      <c r="E165" s="4">
         <v>2.4465193748474121</v>
       </c>
     </row>
@@ -3241,7 +3240,7 @@
       <c r="D166" s="4">
         <v>100.45932769775391</v>
       </c>
-      <c r="E166" s="5">
+      <c r="E166" s="4">
         <v>3.0156407356262207</v>
       </c>
     </row>
@@ -3258,7 +3257,7 @@
       <c r="D167" s="4">
         <v>72.953117370605469</v>
       </c>
-      <c r="E167" s="5">
+      <c r="E167" s="4">
         <v>2.289823055267334</v>
       </c>
     </row>
@@ -3275,7 +3274,7 @@
       <c r="D168" s="4">
         <v>77.779022216796875</v>
       </c>
-      <c r="E168" s="5">
+      <c r="E168" s="4">
         <v>2.4210526943206787</v>
       </c>
     </row>
@@ -3292,7 +3291,7 @@
       <c r="D169" s="4">
         <v>70.372489929199219</v>
       </c>
-      <c r="E169" s="5">
+      <c r="E169" s="4">
         <v>2.4364027976989746</v>
       </c>
     </row>
@@ -3309,7 +3308,7 @@
       <c r="D170" s="4">
         <v>77.915969848632813</v>
       </c>
-      <c r="E170" s="5">
+      <c r="E170" s="4">
         <v>2.5136353969573975</v>
       </c>
     </row>
@@ -3326,7 +3325,7 @@
       <c r="D171" s="4">
         <v>69.003524780273438</v>
       </c>
-      <c r="E171" s="5">
+      <c r="E171" s="4">
         <v>2.2018802165985107</v>
       </c>
     </row>
@@ -3343,7 +3342,7 @@
       <c r="D172" s="4">
         <v>119.83855438232422</v>
       </c>
-      <c r="E172" s="5">
+      <c r="E172" s="4">
         <v>3.2366824150085449</v>
       </c>
     </row>
@@ -3360,7 +3359,7 @@
       <c r="D173" s="4">
         <v>93.221542358398438</v>
       </c>
-      <c r="E173" s="5">
+      <c r="E173" s="4">
         <v>2.6668276786804199</v>
       </c>
     </row>
@@ -3377,7 +3376,7 @@
       <c r="D174" s="4">
         <v>83.428855895996094</v>
       </c>
-      <c r="E174" s="5">
+      <c r="E174" s="4">
         <v>2.5127913951873779</v>
       </c>
     </row>
@@ -3394,7 +3393,7 @@
       <c r="D175" s="4">
         <v>98.767105102539063</v>
       </c>
-      <c r="E175" s="5">
+      <c r="E175" s="4">
         <v>2.8502993583679199</v>
       </c>
     </row>
@@ -3411,7 +3410,7 @@
       <c r="D176" s="4">
         <v>138.75395202636719</v>
       </c>
-      <c r="E176" s="5">
+      <c r="E176" s="4">
         <v>3.5920231342315674</v>
       </c>
     </row>
@@ -3428,7 +3427,7 @@
       <c r="D177" s="4">
         <v>136.44558715820313</v>
       </c>
-      <c r="E177" s="5">
+      <c r="E177" s="4">
         <v>3.1988368034362793</v>
       </c>
     </row>
@@ -3445,7 +3444,7 @@
       <c r="D178" s="4">
         <v>131.55665588378906</v>
       </c>
-      <c r="E178" s="5">
+      <c r="E178" s="4">
         <v>3.6248354911804199</v>
       </c>
     </row>
@@ -3462,7 +3461,7 @@
       <c r="D179" s="4">
         <v>83.661003112792969</v>
       </c>
-      <c r="E179" s="5">
+      <c r="E179" s="4">
         <v>2.3929331302642822</v>
       </c>
     </row>
@@ -3479,7 +3478,7 @@
       <c r="D180" s="4">
         <v>84.380050659179688</v>
       </c>
-      <c r="E180" s="5">
+      <c r="E180" s="4">
         <v>2.4107887744903564</v>
       </c>
     </row>
@@ -3496,7 +3495,7 @@
       <c r="D181" s="4">
         <v>86.526222229003906</v>
       </c>
-      <c r="E181" s="5">
+      <c r="E181" s="4">
         <v>2.430687427520752</v>
       </c>
     </row>
@@ -3513,7 +3512,7 @@
       <c r="D182" s="4">
         <v>111.98569488525391</v>
       </c>
-      <c r="E182" s="5">
+      <c r="E182" s="4">
         <v>3.1875081062316895</v>
       </c>
     </row>
@@ -3530,7 +3529,7 @@
       <c r="D183" s="4">
         <v>111.92469787597656</v>
       </c>
-      <c r="E183" s="5">
+      <c r="E183" s="4">
         <v>3.3725161552429199</v>
       </c>
     </row>
@@ -3547,7 +3546,7 @@
       <c r="D184" s="4">
         <v>104.23526763916016</v>
       </c>
-      <c r="E184" s="5">
+      <c r="E184" s="4">
         <v>3.3438715934753418</v>
       </c>
     </row>
@@ -3564,7 +3563,7 @@
       <c r="D185" s="4">
         <v>102.19049072265625</v>
       </c>
-      <c r="E185" s="5">
+      <c r="E185" s="4">
         <v>3.1746032238006592</v>
       </c>
     </row>
@@ -3581,7 +3580,7 @@
       <c r="D186" s="4">
         <v>76.2623291015625</v>
       </c>
-      <c r="E186" s="5">
+      <c r="E186" s="4">
         <v>2.2998507022857666</v>
       </c>
     </row>
@@ -3598,7 +3597,7 @@
       <c r="D187" s="4">
         <v>85.905967712402344</v>
       </c>
-      <c r="E187" s="5">
+      <c r="E187" s="4">
         <v>2.6851732730865479</v>
       </c>
     </row>
@@ -3615,7 +3614,7 @@
       <c r="D188" s="4">
         <v>106.80866241455078</v>
       </c>
-      <c r="E188" s="5">
+      <c r="E188" s="4">
         <v>3.3526163101196289</v>
       </c>
     </row>
@@ -3632,7 +3631,7 @@
       <c r="D189" s="4">
         <v>82.478530883789063</v>
       </c>
-      <c r="E189" s="5">
+      <c r="E189" s="4">
         <v>2.9023382663726807</v>
       </c>
     </row>
@@ -3649,7 +3648,7 @@
       <c r="D190" s="4">
         <v>98.7674560546875</v>
       </c>
-      <c r="E190" s="5">
+      <c r="E190" s="4">
         <v>3.3267064094543457</v>
       </c>
     </row>
@@ -3666,7 +3665,7 @@
       <c r="D191" s="4">
         <v>91.931884765625</v>
       </c>
-      <c r="E191" s="5">
+      <c r="E191" s="4">
         <v>3.1440410614013672</v>
       </c>
     </row>
@@ -3683,7 +3682,7 @@
       <c r="D192" s="4">
         <v>150.71588134765625</v>
       </c>
-      <c r="E192" s="5">
+      <c r="E192" s="4">
         <v>4.140378475189209</v>
       </c>
     </row>
@@ -3700,7 +3699,7 @@
       <c r="D193" s="4">
         <v>148.23687744140625</v>
       </c>
-      <c r="E193" s="5">
+      <c r="E193" s="4">
         <v>4.610558032989502</v>
       </c>
     </row>
@@ -3717,7 +3716,7 @@
       <c r="D194" s="4">
         <v>118.21114349365234</v>
       </c>
-      <c r="E194" s="5">
+      <c r="E194" s="4">
         <v>3.3955628871917725</v>
       </c>
     </row>
@@ -3734,7 +3733,7 @@
       <c r="D195" s="4">
         <v>103.74964904785156</v>
       </c>
-      <c r="E195" s="5">
+      <c r="E195" s="4">
         <v>2.9985651969909668</v>
       </c>
     </row>
@@ -3751,7 +3750,7 @@
       <c r="D196" s="4">
         <v>109.72029113769531</v>
       </c>
-      <c r="E196" s="5">
+      <c r="E196" s="4">
         <v>3.2775919437408447</v>
       </c>
     </row>
@@ -3768,7 +3767,7 @@
       <c r="D197" s="4">
         <v>85.221450805664063</v>
       </c>
-      <c r="E197" s="5">
+      <c r="E197" s="4">
         <v>3.0516102313995361</v>
       </c>
     </row>
@@ -3785,7 +3784,7 @@
       <c r="D198" s="4">
         <v>88.332420349121094</v>
       </c>
-      <c r="E198" s="5">
+      <c r="E198" s="4">
         <v>2.7046365737915039</v>
       </c>
     </row>
@@ -3802,7 +3801,7 @@
       <c r="D199" s="4">
         <v>90.168128967285156</v>
       </c>
-      <c r="E199" s="5">
+      <c r="E199" s="4">
         <v>2.5703794956207275</v>
       </c>
     </row>
@@ -3819,7 +3818,7 @@
       <c r="D200" s="4">
         <v>114.61045074462891</v>
       </c>
-      <c r="E200" s="5">
+      <c r="E200" s="4">
         <v>3.1646451950073242</v>
       </c>
     </row>
@@ -3836,7 +3835,7 @@
       <c r="D201" s="4">
         <v>98.738487243652344</v>
       </c>
-      <c r="E201" s="5">
+      <c r="E201" s="4">
         <v>2.7690932750701904</v>
       </c>
     </row>
@@ -3853,7 +3852,7 @@
       <c r="D202" s="4">
         <v>104.54522705078125</v>
       </c>
-      <c r="E202" s="5">
+      <c r="E202" s="4">
         <v>3.3074204921722412</v>
       </c>
     </row>
@@ -3870,7 +3869,7 @@
       <c r="D203" s="4">
         <v>85.747787475585938</v>
       </c>
-      <c r="E203" s="5">
+      <c r="E203" s="4">
         <v>2.7078256607055664</v>
       </c>
     </row>
@@ -3887,7 +3886,7 @@
       <c r="D204" s="4">
         <v>82.918754577636719</v>
       </c>
-      <c r="E204" s="5">
+      <c r="E204" s="4">
         <v>2.5207676887512207</v>
       </c>
     </row>
@@ -3904,7 +3903,7 @@
       <c r="D205" s="4">
         <v>102.18046569824219</v>
       </c>
-      <c r="E205" s="5">
+      <c r="E205" s="4">
         <v>3.0462634563446045</v>
       </c>
     </row>
@@ -3921,7 +3920,7 @@
       <c r="D206" s="4">
         <v>105.20123291015625</v>
       </c>
-      <c r="E206" s="5">
+      <c r="E206" s="4">
         <v>3.1038961410522461</v>
       </c>
     </row>
@@ -3938,7 +3937,7 @@
       <c r="D207" s="4">
         <v>114.20635986328125</v>
       </c>
-      <c r="E207" s="5">
+      <c r="E207" s="4">
         <v>3.5475730895996094</v>
       </c>
     </row>
@@ -3955,7 +3954,7 @@
       <c r="D208" s="4">
         <v>96.635879516601563</v>
       </c>
-      <c r="E208" s="5">
+      <c r="E208" s="4">
         <v>2.8646173477172852</v>
       </c>
     </row>
@@ -3972,7 +3971,7 @@
       <c r="D209" s="4">
         <v>119.45992279052734</v>
       </c>
-      <c r="E209" s="5">
+      <c r="E209" s="4">
         <v>3.3040854930877686</v>
       </c>
     </row>
@@ -3989,7 +3988,7 @@
       <c r="D210" s="4">
         <v>102.57996368408203</v>
       </c>
-      <c r="E210" s="5">
+      <c r="E210" s="4">
         <v>2.8330154418945313</v>
       </c>
     </row>
@@ -4006,7 +4005,7 @@
       <c r="D211" s="4">
         <v>126.78901672363281</v>
       </c>
-      <c r="E211" s="5">
+      <c r="E211" s="4">
         <v>3.7728250026702881</v>
       </c>
     </row>
@@ -4023,7 +4022,7 @@
       <c r="D212" s="4">
         <v>102.81346130371094</v>
       </c>
-      <c r="E212" s="5">
+      <c r="E212" s="4">
         <v>3.1206657886505127</v>
       </c>
     </row>
@@ -4040,7 +4039,7 @@
       <c r="D213" s="4">
         <v>138.5316162109375</v>
       </c>
-      <c r="E213" s="5">
+      <c r="E213" s="4">
         <v>3.8630876541137695</v>
       </c>
     </row>
@@ -4057,7 +4056,7 @@
       <c r="D214" s="4">
         <v>115.53444671630859</v>
       </c>
-      <c r="E214" s="5">
+      <c r="E214" s="4">
         <v>3.4005210399627686</v>
       </c>
     </row>
@@ -4074,7 +4073,7 @@
       <c r="D215" s="4">
         <v>91.461570739746094</v>
       </c>
-      <c r="E215" s="5">
+      <c r="E215" s="4">
         <v>2.7452025413513184</v>
       </c>
     </row>
@@ -4091,7 +4090,7 @@
       <c r="D216" s="4">
         <v>92.596015930175781</v>
       </c>
-      <c r="E216" s="5">
+      <c r="E216" s="4">
         <v>2.1850900650024414</v>
       </c>
     </row>
@@ -4108,7 +4107,7 @@
       <c r="D217" s="4">
         <v>82.718254089355469</v>
       </c>
-      <c r="E217" s="5">
+      <c r="E217" s="4">
         <v>2.2809820175170898</v>
       </c>
     </row>
@@ -4125,7 +4124,7 @@
       <c r="D218" s="4">
         <v>92.426788330078125</v>
       </c>
-      <c r="E218" s="5">
+      <c r="E218" s="4">
         <v>2.4562990665435791</v>
       </c>
     </row>
@@ -4142,7 +4141,7 @@
       <c r="D219" s="4">
         <v>64.491371154785156</v>
       </c>
-      <c r="E219" s="5">
+      <c r="E219" s="4">
         <v>2.0846107006072998</v>
       </c>
     </row>
@@ -4159,7 +4158,7 @@
       <c r="D220" s="4">
         <v>111.96229553222656</v>
       </c>
-      <c r="E220" s="5">
+      <c r="E220" s="4">
         <v>2.7326953411102295</v>
       </c>
     </row>
@@ -4176,7 +4175,7 @@
       <c r="D221" s="4">
         <v>123.26347351074219</v>
       </c>
-      <c r="E221" s="5">
+      <c r="E221" s="4">
         <v>2.7561328411102295</v>
       </c>
     </row>
@@ -4193,7 +4192,7 @@
       <c r="D222" s="4">
         <v>125.66661834716797</v>
       </c>
-      <c r="E222" s="5">
+      <c r="E222" s="4">
         <v>2.992732048034668</v>
       </c>
     </row>
@@ -4210,7 +4209,7 @@
       <c r="D223" s="4">
         <v>103.96858978271484</v>
       </c>
-      <c r="E223" s="5">
+      <c r="E223" s="4">
         <v>2.771461009979248</v>
       </c>
     </row>
@@ -4227,7 +4226,7 @@
       <c r="D224" s="4">
         <v>110.02842712402344</v>
       </c>
-      <c r="E224" s="5">
+      <c r="E224" s="4">
         <v>2.4752476215362549</v>
       </c>
     </row>
@@ -4244,7 +4243,7 @@
       <c r="D225" s="4">
         <v>112.74168395996094</v>
       </c>
-      <c r="E225" s="5">
+      <c r="E225" s="4">
         <v>2.6696832180023193</v>
       </c>
     </row>
@@ -4261,7 +4260,7 @@
       <c r="D226" s="4">
         <v>75.053909301757813</v>
       </c>
-      <c r="E226" s="5">
+      <c r="E226" s="4">
         <v>1.8669778108596802</v>
       </c>
     </row>
@@ -4278,7 +4277,7 @@
       <c r="D227" s="4">
         <v>92.0164794921875</v>
       </c>
-      <c r="E227" s="5">
+      <c r="E227" s="4">
         <v>2.1537582874298096</v>
       </c>
     </row>
@@ -4295,7 +4294,7 @@
       <c r="D228" s="4">
         <v>80.407585144042969</v>
       </c>
-      <c r="E228" s="5">
+      <c r="E228" s="4">
         <v>1.8739105463027954</v>
       </c>
     </row>
@@ -4312,7 +4311,7 @@
       <c r="D229" s="4">
         <v>90.607666015625</v>
       </c>
-      <c r="E229" s="5">
+      <c r="E229" s="4">
         <v>2.30222487449646</v>
       </c>
     </row>
@@ -4329,7 +4328,7 @@
       <c r="D230" s="4">
         <v>87.424102783203125</v>
       </c>
-      <c r="E230" s="5">
+      <c r="E230" s="4">
         <v>2.3654642105102539</v>
       </c>
     </row>
@@ -4346,7 +4345,7 @@
       <c r="D231" s="4">
         <v>96.800163269042969</v>
       </c>
-      <c r="E231" s="5">
+      <c r="E231" s="4">
         <v>2.7168576717376709</v>
       </c>
     </row>
@@ -4363,7 +4362,7 @@
       <c r="D232" s="4">
         <v>82.328292846679688</v>
       </c>
-      <c r="E232" s="5">
+      <c r="E232" s="4">
         <v>2.2983522415161133</v>
       </c>
     </row>
@@ -4380,7 +4379,7 @@
       <c r="D233" s="4">
         <v>79.253448486328125</v>
       </c>
-      <c r="E233" s="5">
+      <c r="E233" s="4">
         <v>2.1665642261505127</v>
       </c>
     </row>
@@ -4397,7 +4396,7 @@
       <c r="D234" s="4">
         <v>106.47190093994141</v>
       </c>
-      <c r="E234" s="5">
+      <c r="E234" s="4">
         <v>2.745858907699585</v>
       </c>
     </row>
@@ -4414,7 +4413,7 @@
       <c r="D235" s="4">
         <v>106.58845520019531</v>
       </c>
-      <c r="E235" s="5">
+      <c r="E235" s="4">
         <v>2.6276049613952637</v>
       </c>
     </row>
@@ -4431,7 +4430,7 @@
       <c r="D236" s="4">
         <v>93.521255493164063</v>
       </c>
-      <c r="E236" s="5">
+      <c r="E236" s="4">
         <v>2.5410354137420654</v>
       </c>
     </row>
@@ -4448,7 +4447,7 @@
       <c r="D237" s="4">
         <v>103.4044189453125</v>
       </c>
-      <c r="E237" s="5">
+      <c r="E237" s="4">
         <v>3.3794162273406982</v>
       </c>
     </row>
@@ -4465,7 +4464,7 @@
       <c r="D238" s="4">
         <v>90.367988586425781</v>
       </c>
-      <c r="E238" s="5">
+      <c r="E238" s="4">
         <v>2.4091107845306396</v>
       </c>
     </row>
@@ -4482,7 +4481,7 @@
       <c r="D239" s="4">
         <v>97.83673095703125</v>
       </c>
-      <c r="E239" s="5">
+      <c r="E239" s="4">
         <v>2.5998275279998779</v>
       </c>
     </row>
@@ -4499,7 +4498,7 @@
       <c r="D240" s="4">
         <v>73.078384399414063</v>
       </c>
-      <c r="E240" s="5">
+      <c r="E240" s="4">
         <v>2.3277182579040527</v>
       </c>
     </row>
@@ -4516,7 +4515,7 @@
       <c r="D241" s="4">
         <v>74.279891967773438</v>
       </c>
-      <c r="E241" s="5">
+      <c r="E241" s="4">
         <v>1.8271369934082031</v>
       </c>
     </row>
@@ -4533,7 +4532,7 @@
       <c r="D242" s="4">
         <v>138.42094421386719</v>
       </c>
-      <c r="E242" s="5">
+      <c r="E242" s="4">
         <v>3.770620584487915</v>
       </c>
     </row>
@@ -4550,7 +4549,7 @@
       <c r="D243" s="4">
         <v>75.955558776855469</v>
       </c>
-      <c r="E243" s="5">
+      <c r="E243" s="4">
         <v>2.2674992084503174</v>
       </c>
     </row>
@@ -4567,7 +4566,7 @@
       <c r="D244" s="4">
         <v>81.540031433105469</v>
       </c>
-      <c r="E244" s="5">
+      <c r="E244" s="4">
         <v>2.8459570407867432</v>
       </c>
     </row>
@@ -4584,7 +4583,7 @@
       <c r="D245" s="4">
         <v>69.339401245117188</v>
       </c>
-      <c r="E245" s="5">
+      <c r="E245" s="4">
         <v>2.4061744213104248</v>
       </c>
     </row>
@@ -4601,7 +4600,7 @@
       <c r="D246" s="4">
         <v>68.507217407226563</v>
       </c>
-      <c r="E246" s="5">
+      <c r="E246" s="4">
         <v>2.7038750648498535</v>
       </c>
     </row>
@@ -4618,7 +4617,7 @@
       <c r="D247" s="4">
         <v>71.227859497070313</v>
       </c>
-      <c r="E247" s="5">
+      <c r="E247" s="4">
         <v>2.3398072719573975</v>
       </c>
     </row>
@@ -4635,7 +4634,7 @@
       <c r="D248" s="4">
         <v>66.473281860351563</v>
       </c>
-      <c r="E248" s="5">
+      <c r="E248" s="4">
         <v>2.2153301239013672</v>
       </c>
     </row>
@@ -4652,7 +4651,7 @@
       <c r="D249" s="4">
         <v>65.466049194335938</v>
       </c>
-      <c r="E249" s="5">
+      <c r="E249" s="4">
         <v>1.9851471185684204</v>
       </c>
     </row>
@@ -4669,7 +4668,7 @@
       <c r="D250" s="4">
         <v>80.37738037109375</v>
       </c>
-      <c r="E250" s="5">
+      <c r="E250" s="4">
         <v>2.1476509571075439</v>
       </c>
     </row>
@@ -4686,7 +4685,7 @@
       <c r="D251" s="4">
         <v>76.083168029785156</v>
       </c>
-      <c r="E251" s="5">
+      <c r="E251" s="4">
         <v>1.9602313041687012</v>
       </c>
     </row>
@@ -4703,7 +4702,7 @@
       <c r="D252" s="4">
         <v>70.067466735839844</v>
       </c>
-      <c r="E252" s="5">
+      <c r="E252" s="4">
         <v>1.8198090791702271</v>
       </c>
     </row>
@@ -4720,7 +4719,7 @@
       <c r="D253" s="4">
         <v>64.067291259765625</v>
       </c>
-      <c r="E253" s="5">
+      <c r="E253" s="4">
         <v>2.0262954235076904</v>
       </c>
     </row>
@@ -4737,7 +4736,7 @@
       <c r="D254" s="4">
         <v>78.420608520507813</v>
       </c>
-      <c r="E254" s="5">
+      <c r="E254" s="4">
         <v>2.2219035625457764</v>
       </c>
     </row>
@@ -4754,7 +4753,7 @@
       <c r="D255" s="4">
         <v>74.356033325195313</v>
       </c>
-      <c r="E255" s="5">
+      <c r="E255" s="4">
         <v>1.8671861886978149</v>
       </c>
     </row>
@@ -4771,7 +4770,7 @@
       <c r="D256" s="4">
         <v>79.941619873046875</v>
       </c>
-      <c r="E256" s="5">
+      <c r="E256" s="4">
         <v>1.9433318376541138</v>
       </c>
     </row>
@@ -4788,7 +4787,7 @@
       <c r="D257" s="4">
         <v>90.577362060546875</v>
       </c>
-      <c r="E257" s="5">
+      <c r="E257" s="4">
         <v>2.131901741027832</v>
       </c>
     </row>
@@ -4805,7 +4804,7 @@
       <c r="D258" s="4">
         <v>94.019554138183594</v>
       </c>
-      <c r="E258" s="5">
+      <c r="E258" s="4">
         <v>2.5226294994354248</v>
       </c>
     </row>
@@ -4822,7 +4821,7 @@
       <c r="D259" s="4">
         <v>75.576210021972656</v>
       </c>
-      <c r="E259" s="5">
+      <c r="E259" s="4">
         <v>2.1286659240722656</v>
       </c>
     </row>
@@ -4839,7 +4838,7 @@
       <c r="D260" s="4">
         <v>60.601642608642578</v>
       </c>
-      <c r="E260" s="5">
+      <c r="E260" s="4">
         <v>1.675119161605835</v>
       </c>
     </row>
@@ -4856,7 +4855,7 @@
       <c r="D261" s="4">
         <v>90.608268737792969</v>
       </c>
-      <c r="E261" s="5">
+      <c r="E261" s="4">
         <v>2.1616542339324951</v>
       </c>
     </row>
@@ -4873,7 +4872,7 @@
       <c r="D262" s="4">
         <v>81.634361267089844</v>
       </c>
-      <c r="E262" s="5">
+      <c r="E262" s="4">
         <v>2.3277466297149658</v>
       </c>
     </row>
@@ -4890,7 +4889,7 @@
       <c r="D263" s="4">
         <v>80.951042175292969</v>
       </c>
-      <c r="E263" s="5">
+      <c r="E263" s="4">
         <v>1.9282112121582031</v>
       </c>
     </row>
@@ -4907,7 +4906,7 @@
       <c r="D264" s="4">
         <v>89.138786315917969</v>
       </c>
-      <c r="E264" s="5">
+      <c r="E264" s="4">
         <v>1.8996590375900269</v>
       </c>
     </row>
@@ -4924,7 +4923,7 @@
       <c r="D265" s="4">
         <v>108.52504730224609</v>
       </c>
-      <c r="E265" s="5">
+      <c r="E265" s="4">
         <v>2.4995994567871094</v>
       </c>
     </row>
